--- a/Deprecated/Modelo Relacional.xlsx
+++ b/Deprecated/Modelo Relacional.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="MR 2.0" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="MR 1.0" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,14 +12,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="73">
+  <si>
+    <t>Usuario (IdUsuario, Nombre, APaterno, AMaterno, Sexo, Email, Telefono)</t>
+  </si>
   <si>
     <t>Alumno(NoControl, Nombre, APaterno, AMaterno, Sexo, FechaNacimiento, Email, Telefono, TelefonoCasa, AreaInteres, Encuesta, IdGrupo)</t>
   </si>
   <si>
+    <t>PK -&gt; IdUsuario</t>
+  </si>
+  <si>
     <t>PK -&gt; NoControl</t>
   </si>
   <si>
+    <t>FK -&gt; No tiene</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdUsuario, Email</t>
+  </si>
+  <si>
+    <t>Alumno (IdUsuario, FechaNacimiento, TelefonoCasa, AreaInteres, Encuesta)</t>
+  </si>
+  <si>
     <t>FK -&gt; IdGrupo</t>
   </si>
   <si>
@@ -43,9 +59,6 @@
     <t>PK -&gt; IdGeneracion</t>
   </si>
   <si>
-    <t>FK -&gt; No tiene</t>
-  </si>
-  <si>
     <t>AK -&gt; IdGeneracion, FechaInicio, FechaFin</t>
   </si>
   <si>
@@ -58,45 +71,63 @@
     <t>AK -&gt; RFC, Nombre, APaterno, AMaterno</t>
   </si>
   <si>
+    <t>Reporte(IdReporte, Descripcion, Archivo, Fecha, RFC)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdReporte</t>
+  </si>
+  <si>
     <t>Director(RFC, Nombre, APaterno, AMaterno, Sexo, Email, Telefono)</t>
   </si>
   <si>
-    <t>Reporte(IdReporte, Descripcion, Archivo, Fecha, RFC)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdReporte</t>
-  </si>
-  <si>
     <t>FK -&gt; RFC</t>
   </si>
   <si>
     <t>AK -&gt; IdReporte, Fecha</t>
   </si>
   <si>
+    <t>Encuesta(IdEncuesta, Descripcion, Activa, Archivo)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdEncuesta</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdEncuesta, Archivo</t>
+  </si>
+  <si>
+    <t>Estatus(IdEstatus, Nombre, Descripcion)</t>
+  </si>
+  <si>
     <t>Usuario(Nombre, APaterno, AMaterno, Sex, Email, Telefono, IdRol)</t>
   </si>
   <si>
     <t>PK -&gt; No tiene</t>
   </si>
   <si>
+    <t>PK -&gt; IdEstatus</t>
+  </si>
+  <si>
     <t>FK -&gt; IdRol</t>
   </si>
   <si>
+    <t>AK -&gt; IdEstatus, Nombre</t>
+  </si>
+  <si>
     <t>AK -&gt; APaterno, AMatertno, Email</t>
   </si>
   <si>
-    <t>Encuesta(IdEncuesta, Descripcion, Activa, Archivo)</t>
-  </si>
-  <si>
-    <t>PK -&gt; IdEncuesta</t>
-  </si>
-  <si>
-    <t>AK -&gt; IdEncuesta, Archivo</t>
+    <t>Ocupacion(IdOcupacion, Nombre, Descripcion, AreaOcupacion, LugarOcupacion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdOcupacion</t>
   </si>
   <si>
     <t>Rol(IdRol, NombreRol, Descripcion)</t>
   </si>
   <si>
+    <t>AK -&gt; IdOcupacion, Nombre</t>
+  </si>
+  <si>
     <t>PK -&gt; IdRol</t>
   </si>
   <si>
@@ -112,39 +143,39 @@
     <t>AK -&gt; IdPermiso, NombrePermiso</t>
   </si>
   <si>
+    <t>AlumnoEncuesta(NoControl, IdEncuesta, Fecha)</t>
+  </si>
+  <si>
     <t>RolPermiso(IdRol, IdPermiso, FechaAsignacion)</t>
   </si>
   <si>
+    <t>PK -&gt; NoControl, IdEncuesta</t>
+  </si>
+  <si>
     <t>PK -&gt; IdRol, IdPermiso</t>
   </si>
   <si>
+    <t>FK1 -&gt; NoControl</t>
+  </si>
+  <si>
+    <t>FK2 -&gt; IdEncuesta</t>
+  </si>
+  <si>
     <t>FK1 -&gt; IdRol</t>
   </si>
   <si>
+    <t>AK -&gt; NoControl, IdEncuesta, Fecha</t>
+  </si>
+  <si>
     <t>FK2 -&gt; IdPermiso</t>
   </si>
   <si>
+    <t>AdministradorEncuesta(RFC, IdEncuesta, FechaPublicacion)</t>
+  </si>
+  <si>
     <t>AK -&gt; IdRol, IdPermiso, FechaAsignacion</t>
   </si>
   <si>
-    <t>AlumnoEncuesta(NoControl, IdEncuesta, Fecha)</t>
-  </si>
-  <si>
-    <t>PK -&gt; NoControl, IdEncuesta</t>
-  </si>
-  <si>
-    <t>FK1 -&gt; NoControl</t>
-  </si>
-  <si>
-    <t>FK2 -&gt; IdEncuesta</t>
-  </si>
-  <si>
-    <t>AK -&gt; NoControl, IdEncuesta, Fecha</t>
-  </si>
-  <si>
-    <t>AdministradorEncuesta(RFC, IdEncuesta, FechaPublicacion)</t>
-  </si>
-  <si>
     <t>PK -&gt; RFC, IdEncuesta</t>
   </si>
   <si>
@@ -166,19 +197,40 @@
     <t>AK -&gt; NoControl, IdEstatus, FechaAsignacion</t>
   </si>
   <si>
+    <t>EstatusOcupacion(IdEstatus, IdOcupacion, Sueldo)</t>
+  </si>
+  <si>
+    <t>PK -&gt; idEstatus, IdOcupacion</t>
+  </si>
+  <si>
+    <t>FK1 -&gt; IdEstatus</t>
+  </si>
+  <si>
+    <t>FK2 -&gt; IdOcupacion</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdEstatus, IdOcupacion, Sueldo</t>
+  </si>
+  <si>
     <t>EstatusOcupacion(IdEstatus, IdOcupacion)</t>
   </si>
   <si>
-    <t>PK -&gt; idEstatus, IdOcupacion</t>
-  </si>
-  <si>
-    <t>FK1 -&gt; IdEstatus</t>
-  </si>
-  <si>
-    <t>FK2 -&gt; IdOcupacion</t>
+    <t>UsuarioRol(IdUsuario, IdRol, FechaAsignacion)</t>
+  </si>
+  <si>
+    <t>PK -&gt; IdUsuario, IdRol</t>
+  </si>
+  <si>
+    <t>FK1 -&gt; IdUsuario</t>
   </si>
   <si>
     <t>AK -&gt; No tiene</t>
+  </si>
+  <si>
+    <t>FK2 -&gt; IdRol</t>
+  </si>
+  <si>
+    <t>AK -&gt; IdUsuario, IdRol, FechaAsignacion</t>
   </si>
 </sst>
 </file>
@@ -196,12 +248,18 @@
     </font>
     <font/>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -213,18 +271,40 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -241,7 +321,428 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="68.29"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="10"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="10"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="8"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="8"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="8"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="8"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="8"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -252,364 +753,364 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
+      <c r="A2" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+      <c r="A3" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
+      <c r="A4" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
+      <c r="A6" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
+      <c r="A7" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
+      <c r="A8" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
+      <c r="A9" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2"/>
+      <c r="A10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
+      <c r="A11" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
+      <c r="A12" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
+      <c r="A13" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
+      <c r="A14" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2"/>
+      <c r="A15" s="4"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>12</v>
+      <c r="A16" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
+      <c r="A17" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>10</v>
+      <c r="A18" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>14</v>
+      <c r="A19" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2"/>
+      <c r="A20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>15</v>
+      <c r="A21" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>13</v>
+      <c r="A22" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>10</v>
+      <c r="A23" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
-        <v>14</v>
+      <c r="A24" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>16</v>
+      <c r="A26" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>17</v>
+      <c r="A27" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>18</v>
+      <c r="A28" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
-        <v>19</v>
+      <c r="A29" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2"/>
+      <c r="A30" s="4"/>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
-        <v>20</v>
+      <c r="A31" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>21</v>
+      <c r="A32" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>22</v>
+      <c r="A33" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
-        <v>23</v>
+      <c r="A34" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="s">
-        <v>10</v>
+      <c r="A38" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2"/>
+      <c r="A40" s="4"/>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
-        <v>27</v>
+      <c r="A41" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>28</v>
+      <c r="A42" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="s">
-        <v>10</v>
+      <c r="A43" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="s">
-        <v>29</v>
+      <c r="A44" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2"/>
+      <c r="A45" s="4"/>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
-        <v>30</v>
+      <c r="A46" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="s">
-        <v>31</v>
+      <c r="A47" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>10</v>
+      <c r="A48" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="s">
-        <v>32</v>
+      <c r="A49" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2"/>
+      <c r="A50" s="4"/>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
-        <v>33</v>
+      <c r="A51" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
-        <v>34</v>
+      <c r="A52" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="s">
-        <v>35</v>
+      <c r="A53" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="s">
-        <v>36</v>
+      <c r="A54" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="s">
-        <v>37</v>
+      <c r="A55" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2"/>
+      <c r="A56" s="4"/>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="s">
-        <v>38</v>
+      <c r="A57" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="s">
-        <v>39</v>
+      <c r="A58" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="s">
-        <v>40</v>
+      <c r="A59" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="s">
-        <v>41</v>
+      <c r="A60" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="s">
-        <v>42</v>
+      <c r="A61" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2"/>
+      <c r="A62" s="4"/>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
-        <v>43</v>
+      <c r="A63" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="s">
-        <v>44</v>
+      <c r="A64" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="s">
-        <v>45</v>
+      <c r="A65" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="s">
-        <v>41</v>
+      <c r="A66" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="s">
-        <v>46</v>
+      <c r="A67" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="72">
-      <c r="A72" s="4" t="s">
-        <v>49</v>
+      <c r="A72" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="4" t="s">
-        <v>50</v>
+      <c r="A73" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="4" t="s">
-        <v>51</v>
+      <c r="A75" s="12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="4" t="s">
-        <v>52</v>
+      <c r="A76" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="4" t="s">
-        <v>53</v>
+      <c r="A77" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="4" t="s">
-        <v>54</v>
+      <c r="A78" s="12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="4" t="s">
-        <v>55</v>
+      <c r="A79" s="12" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
